--- a/score/GPS/GPS.xlsx
+++ b/score/GPS/GPS.xlsx
@@ -1,19 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\Python\Tiểu luận - NMLT\score\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\python\TL\TLGiang\score\GPS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABF5A664-FB5E-4DBF-8D2E-1B88CEE5FC3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="11016" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="gp01A" sheetId="1" r:id="rId1"/>
+    <sheet name="gp01B" sheetId="2" r:id="rId2"/>
+    <sheet name="gp02A" sheetId="3" r:id="rId3"/>
+    <sheet name="gp02B" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="214">
   <si>
     <t>STT</t>
   </si>
@@ -45,46 +47,634 @@
     <t>Cuối kỳ</t>
   </si>
   <si>
-    <t>Nguyễn Văn A</t>
-  </si>
-  <si>
-    <t>DH22HM01</t>
-  </si>
-  <si>
-    <t>Nguyễn Văn B</t>
-  </si>
-  <si>
-    <t>Nguyễn Văn C</t>
-  </si>
-  <si>
-    <t>Nguyễn Văn D</t>
-  </si>
-  <si>
-    <t>Nguyễn Văn E</t>
-  </si>
-  <si>
-    <t>Nguyễn Văn F</t>
-  </si>
-  <si>
-    <t>Nguyễn Văn G</t>
-  </si>
-  <si>
-    <t>Nguyễn Văn H</t>
-  </si>
-  <si>
-    <t>Nguyễn Văn I</t>
-  </si>
-  <si>
-    <t>Nguyễn Văn K</t>
-  </si>
-  <si>
     <t>DH21HM01</t>
+  </si>
+  <si>
+    <t>Lê Thị Đông</t>
+  </si>
+  <si>
+    <t>DH20HM01</t>
+  </si>
+  <si>
+    <t>Lê Thị Hồng Ngọc</t>
+  </si>
+  <si>
+    <t>Lý Văn Hải</t>
+  </si>
+  <si>
+    <t>Phạm Văn Hải Anh</t>
+  </si>
+  <si>
+    <t>DH20HM02</t>
+  </si>
+  <si>
+    <t>Vũ Văn Quốc</t>
+  </si>
+  <si>
+    <t>Bùi Thị Hải Yến</t>
+  </si>
+  <si>
+    <t>Đỗ Thị Hồng Loan</t>
+  </si>
+  <si>
+    <t>Ngô Thị Hương Giang</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Lan Anh</t>
+  </si>
+  <si>
+    <t>Trần Văn Huyền</t>
+  </si>
+  <si>
+    <t>Đỗ Thị Hồng Thắm</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Huyền Trang</t>
+  </si>
+  <si>
+    <t>Trần Văn Hồng Phúc</t>
+  </si>
+  <si>
+    <t>Vũ Văn Hùng</t>
+  </si>
+  <si>
+    <t>Bùi Thị Điệp</t>
+  </si>
+  <si>
+    <t>Bùi Thị Hoa</t>
+  </si>
+  <si>
+    <t>Đỗ Thị Đặng</t>
+  </si>
+  <si>
+    <t>Đỗ Thị Hoàng Anh</t>
+  </si>
+  <si>
+    <t>Lê Thị Huyền Trang</t>
+  </si>
+  <si>
+    <t>Mai Văn Hùng</t>
+  </si>
+  <si>
+    <t>Ngô Thị Hoài Thương</t>
+  </si>
+  <si>
+    <t>Hoàng Thị Hương Trà</t>
+  </si>
+  <si>
+    <t>Lê Thị Mai</t>
+  </si>
+  <si>
+    <t>Lý Văn Hùng</t>
+  </si>
+  <si>
+    <t>Ngô Thị Hồng</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Hoàng Yến</t>
+  </si>
+  <si>
+    <t>Phạm Văn Hưng</t>
+  </si>
+  <si>
+    <t>Phạm Văn Huy</t>
+  </si>
+  <si>
+    <t>Trần Văn Hiệp</t>
+  </si>
+  <si>
+    <t>Trần Văn Linh</t>
+  </si>
+  <si>
+    <t>Trần Văn Thành</t>
+  </si>
+  <si>
+    <t>Bùi Thị Hồng</t>
+  </si>
+  <si>
+    <t>Mai Văn Đức Anh</t>
+  </si>
+  <si>
+    <t>Mai Văn Hưng</t>
+  </si>
+  <si>
+    <t>Mai Văn Huy</t>
+  </si>
+  <si>
+    <t>Mai Văn Huyền</t>
+  </si>
+  <si>
+    <t>Ngô Thị Đan</t>
+  </si>
+  <si>
+    <t>Trần Văn Hiền</t>
+  </si>
+  <si>
+    <t>Trần Văn Hùng</t>
+  </si>
+  <si>
+    <t>Hoàng Thị Huyền</t>
+  </si>
+  <si>
+    <t>Ngô Thị Hồng Nhung</t>
+  </si>
+  <si>
+    <t>Phạm Văn Hùng</t>
+  </si>
+  <si>
+    <t>Trần Văn Duy</t>
+  </si>
+  <si>
+    <t>Đỗ Thị Hoài</t>
+  </si>
+  <si>
+    <t>Hoàng Thị Hồng Anh</t>
+  </si>
+  <si>
+    <t>Lê Thị Hương Giang</t>
+  </si>
+  <si>
+    <t>Trần Văn Hậu</t>
+  </si>
+  <si>
+    <t>Vũ Văn Hòa</t>
+  </si>
+  <si>
+    <t>Đặng Văn Nhân</t>
+  </si>
+  <si>
+    <t>Đỗ Thị Hải</t>
+  </si>
+  <si>
+    <t>Hoàng Thị Hằng Nga</t>
+  </si>
+  <si>
+    <t>Phạm Văn Hải</t>
+  </si>
+  <si>
+    <t>Hoàng Thị Ngọc Ánh</t>
+  </si>
+  <si>
+    <t>Lê Thị Hạnh Phương</t>
+  </si>
+  <si>
+    <t>Mai Văn Hào</t>
+  </si>
+  <si>
+    <t>Ngô Thị Hồng Ngọc</t>
+  </si>
+  <si>
+    <t>Vũ Văn Định</t>
+  </si>
+  <si>
+    <t>Lý Văn Hậu</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Hằng Nga</t>
+  </si>
+  <si>
+    <t>Phạm Văn Hải Dương</t>
+  </si>
+  <si>
+    <t>Phạm Văn Minh Anh</t>
+  </si>
+  <si>
+    <t>Trần Văn Hải Đăng</t>
+  </si>
+  <si>
+    <t>Bùi Thị Huyền Trang</t>
+  </si>
+  <si>
+    <t>Trần Văn Hào</t>
+  </si>
+  <si>
+    <t>Trần Văn Hùng Anh</t>
+  </si>
+  <si>
+    <t>Bùi Thị Hà Trang</t>
+  </si>
+  <si>
+    <t>Ngô Thị Hà</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Hằng</t>
+  </si>
+  <si>
+    <t>Trần Văn Hưng</t>
+  </si>
+  <si>
+    <t>Đỗ Thị Hải Yến</t>
+  </si>
+  <si>
+    <t>Hoàng Thị Hoài Phương</t>
+  </si>
+  <si>
+    <t>Lê Thị Hạnh Linh</t>
+  </si>
+  <si>
+    <t>Trần Văn Hải</t>
+  </si>
+  <si>
+    <t>Trần Văn Yên</t>
+  </si>
+  <si>
+    <t>Đỗ Thị Quỳnh Anh</t>
+  </si>
+  <si>
+    <t>Ngô Thị Ngọc Anh</t>
+  </si>
+  <si>
+    <t>Trần Văn Huy</t>
+  </si>
+  <si>
+    <t>Bùi Thị Hồng Nhung</t>
+  </si>
+  <si>
+    <t>Lê Thị Hoa</t>
+  </si>
+  <si>
+    <t>Lê Thị Hoàng Anh</t>
+  </si>
+  <si>
+    <t>Phạm Văn Tiến</t>
+  </si>
+  <si>
+    <t>Lý Văn Huyền</t>
+  </si>
+  <si>
+    <t>Bùi Thị Thanh Hà</t>
+  </si>
+  <si>
+    <t>Lê Thị Hương Ly</t>
+  </si>
+  <si>
+    <t>Lê Thị Thùy Linh</t>
+  </si>
+  <si>
+    <t>Lý Văn Việt</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Hoàng Anh</t>
+  </si>
+  <si>
+    <t>Trần Văn Đức</t>
+  </si>
+  <si>
+    <t>Đỗ Thị Hồng Anh</t>
+  </si>
+  <si>
+    <t>Mai Văn Hải Dương</t>
+  </si>
+  <si>
+    <t>Mai Văn Phát</t>
+  </si>
+  <si>
+    <t>Hoàng Thị Uyên</t>
+  </si>
+  <si>
+    <t>Mai Văn Hồng</t>
+  </si>
+  <si>
+    <t>Ngô Thị Huyền</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Hà Anh</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Xuân</t>
+  </si>
+  <si>
+    <t>Bùi Thị Đan</t>
+  </si>
+  <si>
+    <t>Phạm Văn Tín</t>
+  </si>
+  <si>
+    <t>Trần Văn Hiếu</t>
+  </si>
+  <si>
+    <t>DH21HM02</t>
+  </si>
+  <si>
+    <t>Vũ Văn Đình</t>
+  </si>
+  <si>
+    <t>Vũ Văn Hưng</t>
+  </si>
+  <si>
+    <t>Bùi Thị Hương</t>
+  </si>
+  <si>
+    <t>Bùi Thị Khánh</t>
+  </si>
+  <si>
+    <t>Hoàng Thị Mai Anh</t>
+  </si>
+  <si>
+    <t>Lý Văn Đức Minh</t>
+  </si>
+  <si>
+    <t>Trần Văn Tuấn Anh</t>
+  </si>
+  <si>
+    <t>Đỗ Thị Hương Giang</t>
+  </si>
+  <si>
+    <t>Hoàng Thị Đào</t>
+  </si>
+  <si>
+    <t>Ngô Thị Thu</t>
+  </si>
+  <si>
+    <t>Ngô Thị Yến</t>
+  </si>
+  <si>
+    <t>Mai Văn Hòa</t>
+  </si>
+  <si>
+    <t>Mai Văn Thủy</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Vân</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Xuân Anh</t>
+  </si>
+  <si>
+    <t>Phạm Văn Đạt Anh</t>
+  </si>
+  <si>
+    <t>Đỗ Thị Yến Nhi</t>
+  </si>
+  <si>
+    <t>Lê Thị Tuệ</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị An</t>
+  </si>
+  <si>
+    <t>Trần Văn Hoàng</t>
+  </si>
+  <si>
+    <t>Trần Văn Tuấn An</t>
+  </si>
+  <si>
+    <t>Bùi Thị Tuyết</t>
+  </si>
+  <si>
+    <t>Đỗ Thị Tiên</t>
+  </si>
+  <si>
+    <t>Mai Văn Xuyên</t>
+  </si>
+  <si>
+    <t>Ngô Thị Hạnh</t>
+  </si>
+  <si>
+    <t>Phạm Văn Đức Anh</t>
+  </si>
+  <si>
+    <t>Bùi Thị Huệ</t>
+  </si>
+  <si>
+    <t>Lý Văn Minh Hải</t>
+  </si>
+  <si>
+    <t>Lý Văn Vinh</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Hoài</t>
+  </si>
+  <si>
+    <t>Phạm Văn Đăng</t>
+  </si>
+  <si>
+    <t>Phạm Văn Sỹ</t>
+  </si>
+  <si>
+    <t>Bùi Thị Trà My</t>
+  </si>
+  <si>
+    <t>Hoàng Thị Hải Yến</t>
+  </si>
+  <si>
+    <t>Lê Thị Đoan Trang</t>
+  </si>
+  <si>
+    <t>Lý Văn Dương</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Huyền</t>
+  </si>
+  <si>
+    <t>Trần Văn Bảo</t>
+  </si>
+  <si>
+    <t>Bùi Thị Ái</t>
+  </si>
+  <si>
+    <t>Ngô Thị Dương</t>
+  </si>
+  <si>
+    <t>Ngô Thị Huyền Trang</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Hồng Nhung</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Ngọc Anh</t>
+  </si>
+  <si>
+    <t>Phạm Văn Lực</t>
+  </si>
+  <si>
+    <t>Trần Văn Khôi</t>
+  </si>
+  <si>
+    <t>Vũ Văn Yên</t>
+  </si>
+  <si>
+    <t>Bùi Thị Hạnh</t>
+  </si>
+  <si>
+    <t>Đỗ Thị Hồng Ngọc</t>
+  </si>
+  <si>
+    <t>Hoàng Thị Uyển Nhi</t>
+  </si>
+  <si>
+    <t>Lê Thị Cát Tường</t>
+  </si>
+  <si>
+    <t>Mai Văn Hải</t>
+  </si>
+  <si>
+    <t>Ngô Thị Hòa</t>
+  </si>
+  <si>
+    <t>Trần Văn Xuân Hùng</t>
+  </si>
+  <si>
+    <t>Hoa</t>
+  </si>
+  <si>
+    <t>Loan</t>
+  </si>
+  <si>
+    <t>Anh</t>
+  </si>
+  <si>
+    <t>Hùng</t>
+  </si>
+  <si>
+    <t>Huyền</t>
+  </si>
+  <si>
+    <t>An</t>
+  </si>
+  <si>
+    <t>Hưng</t>
+  </si>
+  <si>
+    <t>Đình</t>
+  </si>
+  <si>
+    <t>Phương</t>
+  </si>
+  <si>
+    <t>Trang</t>
+  </si>
+  <si>
+    <t>Hải</t>
+  </si>
+  <si>
+    <t>Hòa</t>
+  </si>
+  <si>
+    <t>Hồng</t>
+  </si>
+  <si>
+    <t>Hiền</t>
+  </si>
+  <si>
+    <t>Hoàng</t>
+  </si>
+  <si>
+    <t>Uyên</t>
+  </si>
+  <si>
+    <t>Nhi</t>
+  </si>
+  <si>
+    <t>Khôi</t>
+  </si>
+  <si>
+    <t>Thủy</t>
+  </si>
+  <si>
+    <t>Nga</t>
+  </si>
+  <si>
+    <t>Xuân</t>
+  </si>
+  <si>
+    <t>Hào</t>
+  </si>
+  <si>
+    <t>Linh</t>
+  </si>
+  <si>
+    <t>Huy</t>
+  </si>
+  <si>
+    <t>Thắm</t>
+  </si>
+  <si>
+    <t>Ly</t>
+  </si>
+  <si>
+    <t>Hiệp</t>
+  </si>
+  <si>
+    <t>Đan</t>
+  </si>
+  <si>
+    <t>Họ và tên</t>
+  </si>
+  <si>
+    <t>tên</t>
+  </si>
+  <si>
+    <t>Yến</t>
+  </si>
+  <si>
+    <t>Dương</t>
+  </si>
+  <si>
+    <t>Ngọc</t>
+  </si>
+  <si>
+    <t>Giang</t>
+  </si>
+  <si>
+    <t>Đăng</t>
+  </si>
+  <si>
+    <t>Sỹ</t>
+  </si>
+  <si>
+    <t>Nhung</t>
+  </si>
+  <si>
+    <t>Tiên</t>
+  </si>
+  <si>
+    <t>Trà</t>
+  </si>
+  <si>
+    <t>Đức</t>
+  </si>
+  <si>
+    <t>Đào</t>
+  </si>
+  <si>
+    <t>Hạnh</t>
+  </si>
+  <si>
+    <t>Lực</t>
+  </si>
+  <si>
+    <t>Hà</t>
+  </si>
+  <si>
+    <t>Việt</t>
+  </si>
+  <si>
+    <t>Thu</t>
+  </si>
+  <si>
+    <t>Hằng</t>
+  </si>
+  <si>
+    <t>Quốc</t>
+  </si>
+  <si>
+    <t>Ánh</t>
+  </si>
+  <si>
+    <t>Tiến</t>
+  </si>
+  <si>
+    <t>Phúc</t>
+  </si>
+  <si>
+    <t>Định</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -395,21 +985,1267 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="E54" sqref="E54:G57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="20.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.21875" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C2" t="s">
+        <v>167</v>
+      </c>
+      <c r="D2">
+        <v>21166203</v>
+      </c>
+      <c r="E2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2">
+        <v>3.4</v>
+      </c>
+      <c r="G2">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D3">
+        <v>21166102</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="G3">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" t="s">
+        <v>164</v>
+      </c>
+      <c r="D4">
+        <v>20166101</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="G4">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C5" t="s">
+        <v>164</v>
+      </c>
+      <c r="D5">
+        <v>20166201</v>
+      </c>
+      <c r="E5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5">
+        <v>9.6</v>
+      </c>
+      <c r="G5">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C6" t="s">
+        <v>164</v>
+      </c>
+      <c r="D6">
+        <v>20166102</v>
+      </c>
+      <c r="E6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6">
+        <v>3.3</v>
+      </c>
+      <c r="G6">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C7" t="s">
+        <v>164</v>
+      </c>
+      <c r="D7">
+        <v>20166204</v>
+      </c>
+      <c r="E7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7">
+        <v>3.5</v>
+      </c>
+      <c r="G7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C8" t="s">
+        <v>164</v>
+      </c>
+      <c r="D8">
+        <v>20166106</v>
+      </c>
+      <c r="E8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8">
+        <v>3.8</v>
+      </c>
+      <c r="G8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>151</v>
+      </c>
+      <c r="C9" t="s">
+        <v>164</v>
+      </c>
+      <c r="D9">
+        <v>21166109</v>
+      </c>
+      <c r="E9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9">
+        <v>3.9</v>
+      </c>
+      <c r="G9">
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>105</v>
+      </c>
+      <c r="C10" t="s">
+        <v>189</v>
+      </c>
+      <c r="D10">
+        <v>21166112</v>
+      </c>
+      <c r="E10" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10">
+        <v>3.9</v>
+      </c>
+      <c r="G10">
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>109</v>
+      </c>
+      <c r="C11" t="s">
+        <v>169</v>
+      </c>
+      <c r="D11">
+        <v>21166118</v>
+      </c>
+      <c r="E11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11">
+        <v>5.4</v>
+      </c>
+      <c r="G11">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>159</v>
+      </c>
+      <c r="C12" t="s">
+        <v>172</v>
+      </c>
+      <c r="D12">
+        <v>21166221</v>
+      </c>
+      <c r="E12" t="s">
+        <v>108</v>
+      </c>
+      <c r="F12">
+        <v>5.9</v>
+      </c>
+      <c r="G12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>81</v>
+      </c>
+      <c r="C13" t="s">
+        <v>172</v>
+      </c>
+      <c r="D13">
+        <v>20166127</v>
+      </c>
+      <c r="E13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13">
+        <v>6.1</v>
+      </c>
+      <c r="G13">
+        <v>9.9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>72</v>
+      </c>
+      <c r="C14" t="s">
+        <v>183</v>
+      </c>
+      <c r="D14">
+        <v>20166219</v>
+      </c>
+      <c r="E14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14">
+        <v>6.9</v>
+      </c>
+      <c r="G14">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" t="s">
+        <v>175</v>
+      </c>
+      <c r="D15">
+        <v>20166129</v>
+      </c>
+      <c r="E15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15">
+        <v>7.3</v>
+      </c>
+      <c r="G15">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" t="s">
+        <v>188</v>
+      </c>
+      <c r="D16">
+        <v>20166222</v>
+      </c>
+      <c r="E16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16">
+        <v>8.1</v>
+      </c>
+      <c r="G16">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>162</v>
+      </c>
+      <c r="D17">
+        <v>20166130</v>
+      </c>
+      <c r="E17" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="G17">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>120</v>
+      </c>
+      <c r="C18" t="s">
+        <v>173</v>
+      </c>
+      <c r="D18">
+        <v>21166124</v>
+      </c>
+      <c r="E18" t="s">
+        <v>6</v>
+      </c>
+      <c r="F18">
+        <v>3.4</v>
+      </c>
+      <c r="G18">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>128</v>
+      </c>
+      <c r="C19" t="s">
+        <v>176</v>
+      </c>
+      <c r="D19">
+        <v>21166231</v>
+      </c>
+      <c r="E19" t="s">
+        <v>108</v>
+      </c>
+      <c r="F19">
+        <v>3.8</v>
+      </c>
+      <c r="G19">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" t="s">
+        <v>174</v>
+      </c>
+      <c r="D20">
+        <v>20166228</v>
+      </c>
+      <c r="E20" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="G20">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" t="s">
+        <v>165</v>
+      </c>
+      <c r="D21">
+        <v>20166134</v>
+      </c>
+      <c r="E21" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21">
+        <v>5.4</v>
+      </c>
+      <c r="G21">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" t="s">
+        <v>165</v>
+      </c>
+      <c r="D22">
+        <v>20166135</v>
+      </c>
+      <c r="E22" t="s">
+        <v>8</v>
+      </c>
+      <c r="F22">
+        <v>5.9</v>
+      </c>
+      <c r="G22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" t="s">
+        <v>165</v>
+      </c>
+      <c r="D23">
+        <v>21166240</v>
+      </c>
+      <c r="E23" t="s">
+        <v>108</v>
+      </c>
+      <c r="F23">
+        <v>5.9</v>
+      </c>
+      <c r="G23">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" t="s">
+        <v>165</v>
+      </c>
+      <c r="D24">
+        <v>21166239</v>
+      </c>
+      <c r="E24" t="s">
+        <v>108</v>
+      </c>
+      <c r="F24">
+        <v>6.7</v>
+      </c>
+      <c r="G24">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" t="s">
+        <v>165</v>
+      </c>
+      <c r="D25">
+        <v>20166139</v>
+      </c>
+      <c r="E25" t="s">
+        <v>8</v>
+      </c>
+      <c r="F25">
+        <v>7.9</v>
+      </c>
+      <c r="G25">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26" t="s">
+        <v>165</v>
+      </c>
+      <c r="D26">
+        <v>21166242</v>
+      </c>
+      <c r="E26" t="s">
+        <v>108</v>
+      </c>
+      <c r="F26">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="G26">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>35</v>
+      </c>
+      <c r="C27" t="s">
+        <v>168</v>
+      </c>
+      <c r="D27">
+        <v>20166141</v>
+      </c>
+      <c r="E27" t="s">
+        <v>8</v>
+      </c>
+      <c r="F27">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="G27">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>77</v>
+      </c>
+      <c r="C28" t="s">
+        <v>168</v>
+      </c>
+      <c r="D28">
+        <v>21166244</v>
+      </c>
+      <c r="E28" t="s">
+        <v>108</v>
+      </c>
+      <c r="F28">
+        <v>6.1</v>
+      </c>
+      <c r="G28">
+        <v>9.9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>43</v>
+      </c>
+      <c r="C29" t="s">
+        <v>185</v>
+      </c>
+      <c r="D29">
+        <v>20166238</v>
+      </c>
+      <c r="E29" t="s">
+        <v>12</v>
+      </c>
+      <c r="F29">
+        <v>7.3</v>
+      </c>
+      <c r="G29">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>36</v>
+      </c>
+      <c r="C30" t="s">
+        <v>185</v>
+      </c>
+      <c r="D30">
+        <v>20166240</v>
+      </c>
+      <c r="E30" t="s">
+        <v>12</v>
+      </c>
+      <c r="F30">
+        <v>7.4</v>
+      </c>
+      <c r="G30">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>48</v>
+      </c>
+      <c r="C31" t="s">
+        <v>166</v>
+      </c>
+      <c r="D31">
+        <v>20166242</v>
+      </c>
+      <c r="E31" t="s">
+        <v>12</v>
+      </c>
+      <c r="F31">
+        <v>7.9</v>
+      </c>
+      <c r="G31">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>90</v>
+      </c>
+      <c r="C32" t="s">
+        <v>166</v>
+      </c>
+      <c r="D32">
+        <v>20166243</v>
+      </c>
+      <c r="E32" t="s">
+        <v>12</v>
+      </c>
+      <c r="F32">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="G32">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>44</v>
+      </c>
+      <c r="C33" t="s">
+        <v>166</v>
+      </c>
+      <c r="D33">
+        <v>20166245</v>
+      </c>
+      <c r="E33" t="s">
+        <v>12</v>
+      </c>
+      <c r="F33">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="G33">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>44</v>
+      </c>
+      <c r="C34" t="s">
+        <v>166</v>
+      </c>
+      <c r="D34">
+        <v>20166244</v>
+      </c>
+      <c r="E34" t="s">
+        <v>12</v>
+      </c>
+      <c r="F34">
+        <v>7.4</v>
+      </c>
+      <c r="G34">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>145</v>
+      </c>
+      <c r="C35" t="s">
+        <v>166</v>
+      </c>
+      <c r="D35">
+        <v>21166253</v>
+      </c>
+      <c r="E35" t="s">
+        <v>108</v>
+      </c>
+      <c r="F35">
+        <v>7.5</v>
+      </c>
+      <c r="G35">
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>18</v>
+      </c>
+      <c r="C36" t="s">
+        <v>166</v>
+      </c>
+      <c r="D36">
+        <v>20166246</v>
+      </c>
+      <c r="E36" t="s">
+        <v>12</v>
+      </c>
+      <c r="F36">
+        <v>7.5</v>
+      </c>
+      <c r="G36">
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>153</v>
+      </c>
+      <c r="C37" t="s">
+        <v>179</v>
+      </c>
+      <c r="D37">
+        <v>21166129</v>
+      </c>
+      <c r="E37" t="s">
+        <v>6</v>
+      </c>
+      <c r="F37">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="G37">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>93</v>
+      </c>
+      <c r="C38" t="s">
+        <v>184</v>
+      </c>
+      <c r="D38">
+        <v>20166146</v>
+      </c>
+      <c r="E38" t="s">
+        <v>8</v>
+      </c>
+      <c r="F38">
+        <v>6.1</v>
+      </c>
+      <c r="G38">
+        <v>9.9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>15</v>
+      </c>
+      <c r="C39" t="s">
+        <v>163</v>
+      </c>
+      <c r="D39">
+        <v>20166250</v>
+      </c>
+      <c r="E39" t="s">
+        <v>12</v>
+      </c>
+      <c r="F39">
+        <v>7.4</v>
+      </c>
+      <c r="G39">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>15</v>
+      </c>
+      <c r="C40" t="s">
+        <v>163</v>
+      </c>
+      <c r="D40">
+        <v>20166251</v>
+      </c>
+      <c r="E40" t="s">
+        <v>12</v>
+      </c>
+      <c r="F40">
+        <v>7.6</v>
+      </c>
+      <c r="G40">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>92</v>
+      </c>
+      <c r="C41" t="s">
+        <v>187</v>
+      </c>
+      <c r="D41">
+        <v>20166252</v>
+      </c>
+      <c r="E41" t="s">
+        <v>12</v>
+      </c>
+      <c r="F41">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="G41">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>67</v>
+      </c>
+      <c r="C42" t="s">
+        <v>181</v>
+      </c>
+      <c r="D42">
+        <v>20166255</v>
+      </c>
+      <c r="E42" t="s">
+        <v>12</v>
+      </c>
+      <c r="F42">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="G42">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>125</v>
+      </c>
+      <c r="C43" t="s">
+        <v>178</v>
+      </c>
+      <c r="D43">
+        <v>21166137</v>
+      </c>
+      <c r="E43" t="s">
+        <v>6</v>
+      </c>
+      <c r="F43">
+        <v>9.6</v>
+      </c>
+      <c r="G43">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>157</v>
+      </c>
+      <c r="C44" t="s">
+        <v>178</v>
+      </c>
+      <c r="D44">
+        <v>21166139</v>
+      </c>
+      <c r="E44" t="s">
+        <v>6</v>
+      </c>
+      <c r="F44">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="G44">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>79</v>
+      </c>
+      <c r="C45" t="s">
+        <v>170</v>
+      </c>
+      <c r="D45">
+        <v>20166261</v>
+      </c>
+      <c r="E45" t="s">
+        <v>12</v>
+      </c>
+      <c r="F45">
+        <v>6.7</v>
+      </c>
+      <c r="G45">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>62</v>
+      </c>
+      <c r="C46" t="s">
+        <v>170</v>
+      </c>
+      <c r="D46">
+        <v>20166264</v>
+      </c>
+      <c r="E46" t="s">
+        <v>12</v>
+      </c>
+      <c r="F46">
+        <v>6.9</v>
+      </c>
+      <c r="G46">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>19</v>
+      </c>
+      <c r="C47" t="s">
+        <v>186</v>
+      </c>
+      <c r="D47">
+        <v>20166266</v>
+      </c>
+      <c r="E47" t="s">
+        <v>12</v>
+      </c>
+      <c r="F47">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="G47">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>121</v>
+      </c>
+      <c r="C48" t="s">
+        <v>180</v>
+      </c>
+      <c r="D48">
+        <v>21166148</v>
+      </c>
+      <c r="E48" t="s">
+        <v>6</v>
+      </c>
+      <c r="F48">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="G48">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49" t="s">
+        <v>171</v>
+      </c>
+      <c r="D49">
+        <v>20166267</v>
+      </c>
+      <c r="E49" t="s">
+        <v>12</v>
+      </c>
+      <c r="F49">
+        <v>3.4</v>
+      </c>
+      <c r="G49">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>71</v>
+      </c>
+      <c r="C50" t="s">
+        <v>171</v>
+      </c>
+      <c r="D50">
+        <v>21166259</v>
+      </c>
+      <c r="E50" t="s">
+        <v>108</v>
+      </c>
+      <c r="F50">
+        <v>5.9</v>
+      </c>
+      <c r="G50">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>143</v>
+      </c>
+      <c r="C51" t="s">
+        <v>171</v>
+      </c>
+      <c r="D51">
+        <v>21166260</v>
+      </c>
+      <c r="E51" t="s">
+        <v>108</v>
+      </c>
+      <c r="F51">
+        <v>6.7</v>
+      </c>
+      <c r="G51">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>100</v>
+      </c>
+      <c r="C52" t="s">
+        <v>177</v>
+      </c>
+      <c r="D52">
+        <v>20166159</v>
+      </c>
+      <c r="E52" t="s">
+        <v>8</v>
+      </c>
+      <c r="F52">
+        <v>6.9</v>
+      </c>
+      <c r="G52">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>104</v>
+      </c>
+      <c r="C53" t="s">
+        <v>182</v>
+      </c>
+      <c r="D53">
+        <v>20166161</v>
+      </c>
+      <c r="E53" t="s">
+        <v>8</v>
+      </c>
+      <c r="F53">
+        <v>7.9</v>
+      </c>
+      <c r="G53">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="B2:E53">
+    <sortCondition ref="C2:C53"/>
+    <sortCondition ref="B2:B53"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F52"/>
+  <sheetViews>
+    <sheetView topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="E53" sqref="E53:F99"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="20.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>190</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
@@ -424,407 +2260,3335 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C2">
+        <v>21166101</v>
+      </c>
+      <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="C2">
-        <v>22166101</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
       <c r="E2">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="F2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="C3">
-        <v>22166102</v>
+        <v>20166104</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E3">
-        <v>7</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="F3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>113</v>
       </c>
       <c r="C4">
-        <v>22166103</v>
+        <v>21166107</v>
       </c>
       <c r="D4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>4.7</v>
       </c>
       <c r="F4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="C5">
-        <v>22166104</v>
+        <v>20166105</v>
       </c>
       <c r="D5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E5">
-        <v>6</v>
+        <v>7.8</v>
       </c>
       <c r="F5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>103</v>
       </c>
       <c r="C6">
-        <v>22166105</v>
+        <v>20166107</v>
       </c>
       <c r="D6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E6">
-        <v>6</v>
+        <v>8.4</v>
       </c>
       <c r="F6">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C7">
-        <v>22166106</v>
+        <v>20166109</v>
       </c>
       <c r="D7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E7">
-        <v>6</v>
+        <v>6.8</v>
       </c>
       <c r="F7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>134</v>
       </c>
       <c r="C8">
-        <v>22166107</v>
+        <v>21166207</v>
       </c>
       <c r="D8" t="s">
-        <v>7</v>
+        <v>108</v>
       </c>
       <c r="E8">
-        <v>8</v>
+        <v>6.2</v>
       </c>
       <c r="F8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>146</v>
       </c>
       <c r="C9">
-        <v>22166108</v>
+        <v>21166209</v>
       </c>
       <c r="D9" t="s">
-        <v>7</v>
+        <v>108</v>
       </c>
       <c r="E9">
-        <v>3</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="F9">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C10">
-        <v>22166109</v>
+        <v>20166114</v>
       </c>
       <c r="D10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E10">
-        <v>5</v>
+        <v>4.7</v>
       </c>
       <c r="F10">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>96</v>
       </c>
       <c r="C11">
-        <v>22166110</v>
+        <v>20166117</v>
       </c>
       <c r="D11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E11">
-        <v>5</v>
+        <v>7.8</v>
       </c>
       <c r="F11">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>6</v>
+        <v>68</v>
       </c>
       <c r="C12">
-        <v>21166101</v>
+        <v>20166210</v>
       </c>
       <c r="D12" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E12">
-        <v>6</v>
+        <v>6.6</v>
       </c>
       <c r="F12">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>68</v>
       </c>
       <c r="C13">
-        <v>21166102</v>
+        <v>20166209</v>
       </c>
       <c r="D13" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E13">
-        <v>5</v>
+        <v>8.4</v>
       </c>
       <c r="F13">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="C14">
-        <v>21166103</v>
+        <v>20166211</v>
       </c>
       <c r="D14" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E14">
-        <v>4</v>
+        <v>5.2</v>
       </c>
       <c r="F14">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C15">
-        <v>21166104</v>
+        <v>20166212</v>
       </c>
       <c r="D15" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E15">
-        <v>6</v>
+        <v>5.2</v>
       </c>
       <c r="F15">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>11</v>
+        <v>75</v>
       </c>
       <c r="C16">
-        <v>21166105</v>
+        <v>20166213</v>
       </c>
       <c r="D16" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E16">
-        <v>4</v>
+        <v>6.8</v>
       </c>
       <c r="F16">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C17">
-        <v>21166106</v>
+        <v>20166122</v>
       </c>
       <c r="D17" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="E17">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="F17">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="C18">
-        <v>21166107</v>
+        <v>20166217</v>
       </c>
       <c r="D18" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E18">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="F18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="C19">
-        <v>21166108</v>
+        <v>20166218</v>
       </c>
       <c r="D19" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E19">
-        <v>6</v>
+        <v>9.1</v>
       </c>
       <c r="F19">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>15</v>
+        <v>66</v>
       </c>
       <c r="C20">
-        <v>21166109</v>
+        <v>20166220</v>
       </c>
       <c r="D20" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E20">
-        <v>4</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="F20">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
+        <v>55</v>
+      </c>
+      <c r="C21">
+        <v>20166128</v>
+      </c>
+      <c r="D21" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="F21">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>107</v>
+      </c>
+      <c r="C22">
+        <v>21166229</v>
+      </c>
+      <c r="D22" t="s">
+        <v>108</v>
+      </c>
+      <c r="E22">
+        <v>4.2</v>
+      </c>
+      <c r="F22">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>138</v>
+      </c>
+      <c r="C23">
+        <v>21166230</v>
+      </c>
+      <c r="D23" t="s">
+        <v>108</v>
+      </c>
+      <c r="E23">
+        <v>4.7</v>
+      </c>
+      <c r="F23">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>40</v>
+      </c>
+      <c r="C24">
+        <v>20166132</v>
+      </c>
+      <c r="D24" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24">
+        <v>6.4</v>
+      </c>
+      <c r="F24">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>135</v>
+      </c>
+      <c r="C25">
+        <v>21166234</v>
+      </c>
+      <c r="D25" t="s">
+        <v>108</v>
+      </c>
+      <c r="E25">
+        <v>9.4</v>
+      </c>
+      <c r="F25">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>32</v>
+      </c>
+      <c r="C26">
+        <v>20166229</v>
+      </c>
+      <c r="D26" t="s">
+        <v>12</v>
+      </c>
+      <c r="E26">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="F26">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>50</v>
+      </c>
+      <c r="C27">
+        <v>20166136</v>
+      </c>
+      <c r="D27" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="F27">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>50</v>
+      </c>
+      <c r="C28">
+        <v>21166238</v>
+      </c>
+      <c r="D28" t="s">
+        <v>108</v>
+      </c>
+      <c r="E28">
+        <v>5.2</v>
+      </c>
+      <c r="F28">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>47</v>
+      </c>
+      <c r="C29">
+        <v>20166231</v>
+      </c>
+      <c r="D29" t="s">
+        <v>12</v>
+      </c>
+      <c r="E29">
+        <v>5.7</v>
+      </c>
+      <c r="F29">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C30">
+        <v>20166137</v>
+      </c>
+      <c r="D30" t="s">
+        <v>8</v>
+      </c>
+      <c r="E30">
+        <v>8.4</v>
+      </c>
+      <c r="F30">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>22</v>
+      </c>
+      <c r="C31">
+        <v>20166233</v>
+      </c>
+      <c r="D31" t="s">
+        <v>12</v>
+      </c>
+      <c r="E31">
+        <v>8.4</v>
+      </c>
+      <c r="F31">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>22</v>
+      </c>
+      <c r="C32">
+        <v>20166138</v>
+      </c>
+      <c r="D32" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32">
+        <v>6.8</v>
+      </c>
+      <c r="F32">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>22</v>
+      </c>
+      <c r="C33">
+        <v>20166234</v>
+      </c>
+      <c r="D33" t="s">
+        <v>12</v>
+      </c>
+      <c r="E33">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="F33">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>110</v>
+      </c>
+      <c r="C34">
+        <v>21166127</v>
+      </c>
+      <c r="D34" t="s">
+        <v>6</v>
+      </c>
+      <c r="E34">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="F34">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>110</v>
+      </c>
+      <c r="C35">
+        <v>21166245</v>
+      </c>
+      <c r="D35" t="s">
+        <v>108</v>
+      </c>
+      <c r="E35">
+        <v>5.7</v>
+      </c>
+      <c r="F35">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36">
+        <v>20166241</v>
+      </c>
+      <c r="D36" t="s">
+        <v>12</v>
+      </c>
+      <c r="E36">
+        <v>6.7</v>
+      </c>
+      <c r="F36">
+        <v>8.3000000000000007</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>112</v>
+      </c>
+      <c r="C37">
+        <v>21166128</v>
+      </c>
+      <c r="D37" t="s">
+        <v>6</v>
+      </c>
+      <c r="E37">
+        <v>6.6</v>
+      </c>
+      <c r="F37">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>80</v>
+      </c>
+      <c r="C38">
+        <v>20166249</v>
+      </c>
+      <c r="D38" t="s">
+        <v>12</v>
+      </c>
+      <c r="E38">
+        <v>6.2</v>
+      </c>
+      <c r="F38">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>59</v>
+      </c>
+      <c r="C39">
+        <v>20166253</v>
+      </c>
+      <c r="D39" t="s">
+        <v>12</v>
+      </c>
+      <c r="E39">
+        <v>7</v>
+      </c>
+      <c r="F39">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>67</v>
+      </c>
+      <c r="C40">
+        <v>20166254</v>
+      </c>
+      <c r="D40" t="s">
+        <v>12</v>
+      </c>
+      <c r="E40">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="F40">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>9</v>
+      </c>
+      <c r="C41">
+        <v>20166149</v>
+      </c>
+      <c r="D41" t="s">
+        <v>8</v>
+      </c>
+      <c r="E41">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="F41">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>86</v>
+      </c>
+      <c r="C42">
+        <v>20166259</v>
+      </c>
+      <c r="D42" t="s">
+        <v>12</v>
+      </c>
+      <c r="E42">
+        <v>4.2</v>
+      </c>
+      <c r="F42">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>150</v>
+      </c>
+      <c r="C43">
+        <v>21166258</v>
+      </c>
+      <c r="D43" t="s">
+        <v>108</v>
+      </c>
+      <c r="E43">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="F43">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>62</v>
+      </c>
+      <c r="C44">
+        <v>20166263</v>
+      </c>
+      <c r="D44" t="s">
+        <v>12</v>
+      </c>
+      <c r="E44">
+        <v>6.8</v>
+      </c>
+      <c r="F44">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>71</v>
+      </c>
+      <c r="C45">
+        <v>20166268</v>
+      </c>
+      <c r="D45" t="s">
+        <v>12</v>
+      </c>
+      <c r="E45">
+        <v>9.4</v>
+      </c>
+      <c r="F45">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46">
+        <v>20166269</v>
+      </c>
+      <c r="D46" t="s">
+        <v>12</v>
+      </c>
+      <c r="E46">
+        <v>8.1</v>
+      </c>
+      <c r="F46">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>126</v>
+      </c>
+      <c r="C47">
+        <v>21166155</v>
+      </c>
+      <c r="D47" t="s">
+        <v>6</v>
+      </c>
+      <c r="E47">
+        <v>7</v>
+      </c>
+      <c r="F47">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>130</v>
+      </c>
+      <c r="C48">
+        <v>21166157</v>
+      </c>
+      <c r="D48" t="s">
+        <v>6</v>
+      </c>
+      <c r="E48">
+        <v>7</v>
+      </c>
+      <c r="F48">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>122</v>
+      </c>
+      <c r="C49">
+        <v>21166159</v>
+      </c>
+      <c r="D49" t="s">
+        <v>6</v>
+      </c>
+      <c r="E49">
+        <v>7</v>
+      </c>
+      <c r="F49">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>132</v>
+      </c>
+      <c r="C50">
+        <v>21166164</v>
+      </c>
+      <c r="D50" t="s">
+        <v>6</v>
+      </c>
+      <c r="E50">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="F50">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>154</v>
+      </c>
+      <c r="C51">
+        <v>21166165</v>
+      </c>
+      <c r="D51" t="s">
+        <v>6</v>
+      </c>
+      <c r="E51">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="F51">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>119</v>
+      </c>
+      <c r="C52">
+        <v>21166166</v>
+      </c>
+      <c r="D52" t="s">
+        <v>6</v>
+      </c>
+      <c r="E52">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="F52">
+        <v>5.7</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="B2:D52">
+    <sortCondition ref="B2:B52"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F51"/>
+  <sheetViews>
+    <sheetView topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="F52" sqref="F52"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="20.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2">
+        <v>20166103</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2">
+        <v>5.7</v>
+      </c>
+      <c r="F2">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3">
+        <v>20166203</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3">
+        <v>6.9</v>
+      </c>
+      <c r="F3">
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C4">
+        <v>20166108</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4">
+        <v>6.9</v>
+      </c>
+      <c r="F4">
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5">
+        <v>20166205</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5">
+        <v>4.7</v>
+      </c>
+      <c r="F5">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>115</v>
+      </c>
+      <c r="C6">
+        <v>21166111</v>
+      </c>
+      <c r="D6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6">
+        <v>6.8</v>
+      </c>
+      <c r="F6">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C7">
+        <v>20166207</v>
+      </c>
+      <c r="D7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7">
+        <v>6.5</v>
+      </c>
+      <c r="F7">
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8">
+        <v>20166113</v>
+      </c>
+      <c r="D8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="F8">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9">
+        <v>20166116</v>
+      </c>
+      <c r="D9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9">
+        <v>5.7</v>
+      </c>
+      <c r="F9">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>148</v>
+      </c>
+      <c r="C10">
+        <v>21166214</v>
+      </c>
+      <c r="D10" t="s">
+        <v>108</v>
+      </c>
+      <c r="E10">
+        <v>3.7</v>
+      </c>
+      <c r="F10">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11">
+        <v>20166118</v>
+      </c>
+      <c r="D11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11">
+        <v>3.2</v>
+      </c>
+      <c r="F11">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12">
+        <v>20166120</v>
+      </c>
+      <c r="D12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="F12">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13">
+        <v>20166121</v>
+      </c>
+      <c r="D13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13">
+        <v>4.2</v>
+      </c>
+      <c r="F13">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14">
+        <v>20166215</v>
+      </c>
+      <c r="D14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14">
+        <v>5.2</v>
+      </c>
+      <c r="F14">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>136</v>
+      </c>
+      <c r="C15">
+        <v>21166121</v>
+      </c>
+      <c r="D15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15">
+        <v>8.1</v>
+      </c>
+      <c r="F15">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16">
+        <v>20166125</v>
+      </c>
+      <c r="D16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16">
+        <v>6.5</v>
+      </c>
+      <c r="F16">
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17">
         <v>16</v>
       </c>
+      <c r="B17" t="s">
+        <v>66</v>
+      </c>
+      <c r="C17">
+        <v>20166221</v>
+      </c>
+      <c r="D17" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17">
+        <v>7</v>
+      </c>
+      <c r="F17">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18">
+        <v>20166223</v>
+      </c>
+      <c r="D18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18">
+        <v>7.8</v>
+      </c>
+      <c r="F18">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19">
+        <v>20166225</v>
+      </c>
+      <c r="D19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19">
+        <v>6.4</v>
+      </c>
+      <c r="F19">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20">
+        <v>20166226</v>
+      </c>
+      <c r="D20" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20">
+        <v>6.8</v>
+      </c>
+      <c r="F20">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>101</v>
+      </c>
       <c r="C21">
+        <v>20166133</v>
+      </c>
+      <c r="D21" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21">
+        <v>9.4</v>
+      </c>
+      <c r="F21">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22">
+        <v>21166237</v>
+      </c>
+      <c r="D22" t="s">
+        <v>108</v>
+      </c>
+      <c r="E22">
+        <v>5.7</v>
+      </c>
+      <c r="F22">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>50</v>
+      </c>
+      <c r="C23">
+        <v>20166230</v>
+      </c>
+      <c r="D23" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23">
+        <v>3.7</v>
+      </c>
+      <c r="F23">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>161</v>
+      </c>
+      <c r="C24">
+        <v>21166126</v>
+      </c>
+      <c r="D24" t="s">
+        <v>6</v>
+      </c>
+      <c r="E24">
+        <v>3.2</v>
+      </c>
+      <c r="F24">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25">
+        <v>20166237</v>
+      </c>
+      <c r="D25" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25">
+        <v>6.2</v>
+      </c>
+      <c r="F25">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>42</v>
+      </c>
+      <c r="C26">
+        <v>20166140</v>
+      </c>
+      <c r="D26" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26">
+        <v>6.2</v>
+      </c>
+      <c r="F26">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>111</v>
+      </c>
+      <c r="C27">
+        <v>21166246</v>
+      </c>
+      <c r="D27" t="s">
+        <v>108</v>
+      </c>
+      <c r="E27">
+        <v>6.2</v>
+      </c>
+      <c r="F27">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>43</v>
+      </c>
+      <c r="C28">
+        <v>20166239</v>
+      </c>
+      <c r="D28" t="s">
+        <v>12</v>
+      </c>
+      <c r="E28">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="F28">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>85</v>
+      </c>
+      <c r="C29">
+        <v>20166143</v>
+      </c>
+      <c r="D29" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29">
+        <v>8.9</v>
+      </c>
+      <c r="F29">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>18</v>
+      </c>
+      <c r="C30">
+        <v>20166247</v>
+      </c>
+      <c r="D30" t="s">
+        <v>12</v>
+      </c>
+      <c r="E30">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="F30">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>80</v>
+      </c>
+      <c r="C31">
+        <v>20166248</v>
+      </c>
+      <c r="D31" t="s">
+        <v>12</v>
+      </c>
+      <c r="E31">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="F31">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>31</v>
+      </c>
+      <c r="C32">
+        <v>20166148</v>
+      </c>
+      <c r="D32" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="F32">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>114</v>
+      </c>
+      <c r="C33">
+        <v>21166133</v>
+      </c>
+      <c r="D33" t="s">
+        <v>6</v>
+      </c>
+      <c r="E33">
+        <v>4.2</v>
+      </c>
+      <c r="F33">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>141</v>
+      </c>
+      <c r="C34">
+        <v>21166134</v>
+      </c>
+      <c r="D34" t="s">
+        <v>6</v>
+      </c>
+      <c r="E34">
+        <v>3.7</v>
+      </c>
+      <c r="F34">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35">
+        <v>21166257</v>
+      </c>
+      <c r="D35" t="s">
+        <v>108</v>
+      </c>
+      <c r="E35">
+        <v>9.1</v>
+      </c>
+      <c r="F35">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>64</v>
+      </c>
+      <c r="C36">
+        <v>20166257</v>
+      </c>
+      <c r="D36" t="s">
+        <v>12</v>
+      </c>
+      <c r="E36">
+        <v>9.1</v>
+      </c>
+      <c r="F36">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>57</v>
+      </c>
+      <c r="C37">
+        <v>20166150</v>
+      </c>
+      <c r="D37" t="s">
+        <v>8</v>
+      </c>
+      <c r="E37">
+        <v>7</v>
+      </c>
+      <c r="F37">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>99</v>
+      </c>
+      <c r="C38">
+        <v>20166152</v>
+      </c>
+      <c r="D38" t="s">
+        <v>8</v>
+      </c>
+      <c r="E38">
+        <v>8.9</v>
+      </c>
+      <c r="F38">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>79</v>
+      </c>
+      <c r="C39">
+        <v>20166262</v>
+      </c>
+      <c r="D39" t="s">
+        <v>12</v>
+      </c>
+      <c r="E39">
+        <v>8.9</v>
+      </c>
+      <c r="F39">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>19</v>
+      </c>
+      <c r="C40">
+        <v>20166265</v>
+      </c>
+      <c r="D40" t="s">
+        <v>12</v>
+      </c>
+      <c r="E40">
+        <v>8.9</v>
+      </c>
+      <c r="F40">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41">
+        <v>20166154</v>
+      </c>
+      <c r="D41" t="s">
+        <v>8</v>
+      </c>
+      <c r="E41">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="F41">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>29</v>
+      </c>
+      <c r="C42">
+        <v>20166155</v>
+      </c>
+      <c r="D42" t="s">
+        <v>8</v>
+      </c>
+      <c r="E42">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="F42">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>106</v>
+      </c>
+      <c r="C43">
+        <v>21166151</v>
+      </c>
+      <c r="D43" t="s">
+        <v>6</v>
+      </c>
+      <c r="E43">
+        <v>6.4</v>
+      </c>
+      <c r="F43">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>27</v>
+      </c>
+      <c r="C44">
+        <v>20166158</v>
+      </c>
+      <c r="D44" t="s">
+        <v>8</v>
+      </c>
+      <c r="E44">
+        <v>6.8</v>
+      </c>
+      <c r="F44">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>20</v>
+      </c>
+      <c r="C45">
+        <v>20166270</v>
+      </c>
+      <c r="D45" t="s">
+        <v>12</v>
+      </c>
+      <c r="E45">
+        <v>6.8</v>
+      </c>
+      <c r="F45">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>158</v>
+      </c>
+      <c r="C46">
+        <v>21166262</v>
+      </c>
+      <c r="D46" t="s">
+        <v>108</v>
+      </c>
+      <c r="E46">
+        <v>6.8</v>
+      </c>
+      <c r="F46">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>100</v>
+      </c>
+      <c r="C47">
+        <v>21166158</v>
+      </c>
+      <c r="D47" t="s">
+        <v>6</v>
+      </c>
+      <c r="E47">
+        <v>5.2</v>
+      </c>
+      <c r="F47">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>137</v>
+      </c>
+      <c r="C48">
+        <v>21166161</v>
+      </c>
+      <c r="D48" t="s">
+        <v>6</v>
+      </c>
+      <c r="E48">
+        <v>8.4</v>
+      </c>
+      <c r="F48">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>82</v>
+      </c>
+      <c r="C49">
+        <v>20166162</v>
+      </c>
+      <c r="D49" t="s">
+        <v>8</v>
+      </c>
+      <c r="E49">
+        <v>6</v>
+      </c>
+      <c r="F49">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>14</v>
+      </c>
+      <c r="C50">
+        <v>20166163</v>
+      </c>
+      <c r="D50" t="s">
+        <v>8</v>
+      </c>
+      <c r="E50">
+        <v>4.2</v>
+      </c>
+      <c r="F50">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>34</v>
+      </c>
+      <c r="C51">
+        <v>20166165</v>
+      </c>
+      <c r="D51" t="s">
+        <v>8</v>
+      </c>
+      <c r="E51">
+        <v>3</v>
+      </c>
+      <c r="F51">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="B2:D51">
+    <sortCondition ref="B2:B51"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G54"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="K51" sqref="K51"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="20.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C1" t="s">
+        <v>191</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" t="s">
+        <v>164</v>
+      </c>
+      <c r="D2">
+        <v>20166202</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="G2">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C3" t="s">
+        <v>164</v>
+      </c>
+      <c r="D3">
         <v>21166110</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3">
+        <v>5</v>
+      </c>
+      <c r="G3">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C4" t="s">
+        <v>164</v>
+      </c>
+      <c r="D4">
+        <v>21166206</v>
+      </c>
+      <c r="E4" t="s">
+        <v>108</v>
+      </c>
+      <c r="F4">
+        <v>5</v>
+      </c>
+      <c r="G4">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C5" t="s">
+        <v>164</v>
+      </c>
+      <c r="D5">
+        <v>20166110</v>
+      </c>
+      <c r="E5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5">
+        <v>8.4</v>
+      </c>
+      <c r="G5">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C6" t="s">
+        <v>164</v>
+      </c>
+      <c r="D6">
+        <v>20166206</v>
+      </c>
+      <c r="E6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6">
+        <v>6.8</v>
+      </c>
+      <c r="G6">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7" t="s">
+        <v>210</v>
+      </c>
+      <c r="D7">
+        <v>20166111</v>
+      </c>
+      <c r="E7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7">
+        <v>6.8</v>
+      </c>
+      <c r="G7">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" t="s">
+        <v>189</v>
+      </c>
+      <c r="D8">
+        <v>20166112</v>
+      </c>
+      <c r="E8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8">
+        <v>6.8</v>
+      </c>
+      <c r="G8">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>139</v>
+      </c>
+      <c r="C9" t="s">
+        <v>196</v>
+      </c>
+      <c r="D9">
+        <v>21166115</v>
+      </c>
+      <c r="E9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="G9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>117</v>
+      </c>
+      <c r="C10" t="s">
+        <v>202</v>
+      </c>
+      <c r="D10">
+        <v>21166117</v>
+      </c>
+      <c r="E10" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10">
+        <v>7.8</v>
+      </c>
+      <c r="G10">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11" t="s">
+        <v>213</v>
+      </c>
+      <c r="D11">
+        <v>20166115</v>
+      </c>
+      <c r="E11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11">
+        <v>3.3</v>
+      </c>
+      <c r="G11">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>96</v>
+      </c>
+      <c r="C12" t="s">
+        <v>201</v>
+      </c>
+      <c r="D12">
+        <v>21166212</v>
+      </c>
+      <c r="E12" t="s">
+        <v>108</v>
+      </c>
+      <c r="F12">
+        <v>6.3</v>
+      </c>
+      <c r="G12">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>144</v>
+      </c>
+      <c r="C13" t="s">
+        <v>193</v>
+      </c>
+      <c r="D13">
+        <v>21166119</v>
+      </c>
+      <c r="E13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F13">
+        <v>6.3</v>
+      </c>
+      <c r="G13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>98</v>
+      </c>
+      <c r="C14" t="s">
+        <v>193</v>
+      </c>
+      <c r="D14">
+        <v>20166208</v>
+      </c>
+      <c r="E14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14">
+        <v>6.3</v>
+      </c>
+      <c r="G14">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>116</v>
+      </c>
+      <c r="C15" t="s">
+        <v>195</v>
+      </c>
+      <c r="D15">
+        <v>21166120</v>
+      </c>
+      <c r="E15" t="s">
+        <v>6</v>
+      </c>
+      <c r="F15">
+        <v>4.3</v>
+      </c>
+      <c r="G15">
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>91</v>
+      </c>
+      <c r="C16" t="s">
+        <v>205</v>
+      </c>
+      <c r="D16">
+        <v>20166119</v>
+      </c>
+      <c r="E16" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="G16">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" t="s">
+        <v>172</v>
+      </c>
+      <c r="D17">
+        <v>20166214</v>
+      </c>
+      <c r="E17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17">
+        <v>4.3</v>
+      </c>
+      <c r="G17">
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18">
         <v>17</v>
       </c>
-      <c r="E21">
-        <v>1</v>
+      <c r="B18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" t="s">
+        <v>172</v>
+      </c>
+      <c r="D18">
+        <v>20166123</v>
+      </c>
+      <c r="E18" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18">
+        <v>8.9</v>
+      </c>
+      <c r="G18">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" t="s">
+        <v>172</v>
+      </c>
+      <c r="D19">
+        <v>21166218</v>
+      </c>
+      <c r="E19" t="s">
+        <v>108</v>
+      </c>
+      <c r="F19">
+        <v>8</v>
+      </c>
+      <c r="G19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>60</v>
+      </c>
+      <c r="C20" t="s">
+        <v>172</v>
+      </c>
+      <c r="D20">
+        <v>20166124</v>
+      </c>
+      <c r="E20" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20">
+        <v>8</v>
+      </c>
+      <c r="G20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>81</v>
+      </c>
+      <c r="C21" t="s">
+        <v>172</v>
+      </c>
+      <c r="D21">
+        <v>20166126</v>
+      </c>
+      <c r="E21" t="s">
+        <v>8</v>
       </c>
       <c r="F21">
+        <v>6.8</v>
+      </c>
+      <c r="G21">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>76</v>
+      </c>
+      <c r="C22" t="s">
+        <v>208</v>
+      </c>
+      <c r="D22">
+        <v>20166216</v>
+      </c>
+      <c r="E22" t="s">
+        <v>12</v>
+      </c>
+      <c r="F22">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="G22">
         <v>5</v>
       </c>
     </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>155</v>
+      </c>
+      <c r="C23" t="s">
+        <v>203</v>
+      </c>
+      <c r="D23">
+        <v>21166224</v>
+      </c>
+      <c r="E23" t="s">
+        <v>108</v>
+      </c>
+      <c r="F23">
+        <v>3.3</v>
+      </c>
+      <c r="G23">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>133</v>
+      </c>
+      <c r="C24" t="s">
+        <v>203</v>
+      </c>
+      <c r="D24">
+        <v>21166226</v>
+      </c>
+      <c r="E24" t="s">
+        <v>108</v>
+      </c>
+      <c r="F24">
+        <v>6.3</v>
+      </c>
+      <c r="G24">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>87</v>
+      </c>
+      <c r="C25" t="s">
+        <v>162</v>
+      </c>
+      <c r="D25">
+        <v>20166131</v>
+      </c>
+      <c r="E25" t="s">
+        <v>8</v>
+      </c>
+      <c r="F25">
+        <v>8.9</v>
+      </c>
+      <c r="G25">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>160</v>
+      </c>
+      <c r="C26" t="s">
+        <v>173</v>
+      </c>
+      <c r="D26">
+        <v>21166125</v>
+      </c>
+      <c r="E26" t="s">
+        <v>6</v>
+      </c>
+      <c r="F26">
+        <v>8.9</v>
+      </c>
+      <c r="G26">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>56</v>
+      </c>
+      <c r="C27" t="s">
+        <v>173</v>
+      </c>
+      <c r="D27">
+        <v>20166224</v>
+      </c>
+      <c r="E27" t="s">
+        <v>12</v>
+      </c>
+      <c r="F27">
+        <v>4.8</v>
+      </c>
+      <c r="G27">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>33</v>
+      </c>
+      <c r="C28" t="s">
+        <v>174</v>
+      </c>
+      <c r="D28">
+        <v>20166227</v>
+      </c>
+      <c r="E28" t="s">
+        <v>12</v>
+      </c>
+      <c r="F28">
+        <v>3.8</v>
+      </c>
+      <c r="G28">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>32</v>
+      </c>
+      <c r="C29" t="s">
+        <v>165</v>
+      </c>
+      <c r="D29">
+        <v>21166235</v>
+      </c>
+      <c r="E29" t="s">
+        <v>108</v>
+      </c>
+      <c r="F29">
+        <v>8.9</v>
+      </c>
+      <c r="G29">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>47</v>
+      </c>
+      <c r="C30" t="s">
+        <v>165</v>
+      </c>
+      <c r="D30">
+        <v>20166232</v>
+      </c>
+      <c r="E30" t="s">
+        <v>12</v>
+      </c>
+      <c r="F30">
+        <v>7.8</v>
+      </c>
+      <c r="G30">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>22</v>
+      </c>
+      <c r="C31" t="s">
+        <v>165</v>
+      </c>
+      <c r="D31">
+        <v>20166236</v>
+      </c>
+      <c r="E31" t="s">
+        <v>12</v>
+      </c>
+      <c r="F31">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="G31">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>22</v>
+      </c>
+      <c r="C32" t="s">
+        <v>165</v>
+      </c>
+      <c r="D32">
+        <v>21166241</v>
+      </c>
+      <c r="E32" t="s">
+        <v>108</v>
+      </c>
+      <c r="F32">
+        <v>4.3</v>
+      </c>
+      <c r="G32">
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>22</v>
+      </c>
+      <c r="C33" t="s">
+        <v>165</v>
+      </c>
+      <c r="D33">
+        <v>20166235</v>
+      </c>
+      <c r="E33" t="s">
+        <v>12</v>
+      </c>
+      <c r="F33">
+        <v>5.3</v>
+      </c>
+      <c r="G33">
+        <v>8.3000000000000007</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>77</v>
+      </c>
+      <c r="C34" t="s">
+        <v>168</v>
+      </c>
+      <c r="D34">
+        <v>20166142</v>
+      </c>
+      <c r="E34" t="s">
+        <v>8</v>
+      </c>
+      <c r="F34">
+        <v>8.9</v>
+      </c>
+      <c r="G34">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>48</v>
+      </c>
+      <c r="C35" t="s">
+        <v>166</v>
+      </c>
+      <c r="D35">
+        <v>20166144</v>
+      </c>
+      <c r="E35" t="s">
+        <v>8</v>
+      </c>
+      <c r="F35">
+        <v>8.9</v>
+      </c>
+      <c r="G35">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>102</v>
+      </c>
+      <c r="C36" t="s">
+        <v>166</v>
+      </c>
+      <c r="D36">
+        <v>20166145</v>
+      </c>
+      <c r="E36" t="s">
+        <v>8</v>
+      </c>
+      <c r="F36">
+        <v>5.8</v>
+      </c>
+      <c r="G36">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>38</v>
+      </c>
+      <c r="C37" t="s">
+        <v>184</v>
+      </c>
+      <c r="D37">
+        <v>20166147</v>
+      </c>
+      <c r="E37" t="s">
+        <v>8</v>
+      </c>
+      <c r="F37">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="G37">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>152</v>
+      </c>
+      <c r="C38" t="s">
+        <v>204</v>
+      </c>
+      <c r="D38">
+        <v>21166132</v>
+      </c>
+      <c r="E38" t="s">
+        <v>6</v>
+      </c>
+      <c r="F38">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="G38">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>156</v>
+      </c>
+      <c r="C39" t="s">
+        <v>194</v>
+      </c>
+      <c r="D39">
+        <v>21166255</v>
+      </c>
+      <c r="E39" t="s">
+        <v>108</v>
+      </c>
+      <c r="F39">
+        <v>5</v>
+      </c>
+      <c r="G39">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>64</v>
+      </c>
+      <c r="C40" t="s">
+        <v>194</v>
+      </c>
+      <c r="D40">
+        <v>20166256</v>
+      </c>
+      <c r="E40" t="s">
+        <v>12</v>
+      </c>
+      <c r="F40">
+        <v>8.9</v>
+      </c>
+      <c r="G40">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>86</v>
+      </c>
+      <c r="C41" t="s">
+        <v>198</v>
+      </c>
+      <c r="D41">
+        <v>20166258</v>
+      </c>
+      <c r="E41" t="s">
+        <v>12</v>
+      </c>
+      <c r="F41">
+        <v>8.4</v>
+      </c>
+      <c r="G41">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>49</v>
+      </c>
+      <c r="C42" t="s">
+        <v>198</v>
+      </c>
+      <c r="D42">
+        <v>20166151</v>
+      </c>
+      <c r="E42" t="s">
+        <v>8</v>
+      </c>
+      <c r="F42">
+        <v>8.4</v>
+      </c>
+      <c r="G42">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>21</v>
+      </c>
+      <c r="C43" t="s">
+        <v>212</v>
+      </c>
+      <c r="D43">
+        <v>20166260</v>
+      </c>
+      <c r="E43" t="s">
+        <v>12</v>
+      </c>
+      <c r="F43">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="G43">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>13</v>
+      </c>
+      <c r="C44" t="s">
+        <v>209</v>
+      </c>
+      <c r="D44">
+        <v>20166153</v>
+      </c>
+      <c r="E44" t="s">
+        <v>8</v>
+      </c>
+      <c r="F44">
+        <v>7.8</v>
+      </c>
+      <c r="G44">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>140</v>
+      </c>
+      <c r="C45" t="s">
+        <v>197</v>
+      </c>
+      <c r="D45">
+        <v>21166144</v>
+      </c>
+      <c r="E45" t="s">
+        <v>6</v>
+      </c>
+      <c r="F45">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="G45">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>118</v>
+      </c>
+      <c r="C46" t="s">
+        <v>207</v>
+      </c>
+      <c r="D46">
+        <v>21166147</v>
+      </c>
+      <c r="E46" t="s">
+        <v>6</v>
+      </c>
+      <c r="F46">
+        <v>7.7</v>
+      </c>
+      <c r="G46">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>131</v>
+      </c>
+      <c r="C47" t="s">
+        <v>199</v>
+      </c>
+      <c r="D47">
+        <v>21166149</v>
+      </c>
+      <c r="E47" t="s">
+        <v>6</v>
+      </c>
+      <c r="F47">
+        <v>4.8</v>
+      </c>
+      <c r="G47">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>89</v>
+      </c>
+      <c r="C48" t="s">
+        <v>211</v>
+      </c>
+      <c r="D48">
+        <v>20166156</v>
+      </c>
+      <c r="E48" t="s">
+        <v>8</v>
+      </c>
+      <c r="F48">
+        <v>5.8</v>
+      </c>
+      <c r="G48">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>30</v>
+      </c>
+      <c r="C49" t="s">
+        <v>200</v>
+      </c>
+      <c r="D49">
+        <v>20166157</v>
+      </c>
+      <c r="E49" t="s">
+        <v>8</v>
+      </c>
+      <c r="F49">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="G49">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>149</v>
+      </c>
+      <c r="C50" t="s">
+        <v>171</v>
+      </c>
+      <c r="D50">
+        <v>21166261</v>
+      </c>
+      <c r="E50" t="s">
+        <v>108</v>
+      </c>
+      <c r="F50">
+        <v>6.7</v>
+      </c>
+      <c r="G50">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>20</v>
+      </c>
+      <c r="C51" t="s">
+        <v>171</v>
+      </c>
+      <c r="D51">
+        <v>20166271</v>
+      </c>
+      <c r="E51" t="s">
+        <v>12</v>
+      </c>
+      <c r="F51">
+        <v>8.9</v>
+      </c>
+      <c r="G51">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>94</v>
+      </c>
+      <c r="C52" t="s">
+        <v>206</v>
+      </c>
+      <c r="D52">
+        <v>20166160</v>
+      </c>
+      <c r="E52" t="s">
+        <v>8</v>
+      </c>
+      <c r="F52">
+        <v>6.8</v>
+      </c>
+      <c r="G52">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>78</v>
+      </c>
+      <c r="C53" t="s">
+        <v>192</v>
+      </c>
+      <c r="D53">
+        <v>20166164</v>
+      </c>
+      <c r="E53" t="s">
+        <v>8</v>
+      </c>
+      <c r="F53">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="G53">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>142</v>
+      </c>
+      <c r="C54" t="s">
+        <v>192</v>
+      </c>
+      <c r="D54">
+        <v>21166265</v>
+      </c>
+      <c r="E54" t="s">
+        <v>108</v>
+      </c>
+      <c r="F54">
+        <v>7.8</v>
+      </c>
+      <c r="G54">
+        <v>5.5</v>
+      </c>
+    </row>
   </sheetData>
+  <sortState ref="B2:E54">
+    <sortCondition ref="C2:C54"/>
+    <sortCondition ref="B2:B54"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>